--- a/2024/shuffle-architecute/Teste10/content/results/metrics_5_8.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_5_8.xlsx
@@ -488,112 +488,112 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_24</t>
+          <t>model_5_8_19</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9639619073191453</v>
+        <v>0.9522957339082113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75559977819779</v>
+        <v>0.7666315747303012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7333498266660623</v>
+        <v>0.02949753759013962</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9805411720230619</v>
+        <v>0.9610530768223285</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7757186493821608</v>
+        <v>0.9503079334669765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1512441486120224</v>
+        <v>0.2002045959234238</v>
       </c>
       <c r="H2" t="n">
-        <v>1.634305357933044</v>
+        <v>1.560535788536072</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5994590520858765</v>
+        <v>0.09607511013746262</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008484093472361565</v>
+        <v>0.2838418781757355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3039715886116028</v>
+        <v>0.1899585127830505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_23</t>
+          <t>model_5_8_20</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9638956120563729</v>
+        <v>0.9527672012581653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.755400803289179</v>
+        <v>0.7666291626287075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7355065543381163</v>
+        <v>-0.005556642327376071</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9811380920795783</v>
+        <v>0.9608598191333193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7776033416795528</v>
+        <v>0.949669826901772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1515223681926727</v>
+        <v>0.1982259303331375</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6356360912323</v>
+        <v>1.560551881790161</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5946105122566223</v>
+        <v>0.09954530745744705</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008223835378885269</v>
+        <v>0.285250335931778</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3014172315597534</v>
+        <v>0.1923978328704834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_22</t>
+          <t>model_5_8_18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9638246210174958</v>
+        <v>0.951802484159543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7551978614410018</v>
+        <v>0.7666233012835947</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7376731913254502</v>
+        <v>0.06431604624925502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.981721797802637</v>
+        <v>0.9612186836033191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7794942509742687</v>
+        <v>0.9509166398162555</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1518203318119049</v>
+        <v>0.2022746652364731</v>
       </c>
       <c r="H4" t="n">
-        <v>1.636993050575256</v>
+        <v>1.560591220855713</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5897396802902222</v>
+        <v>0.09262824058532715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007969338446855545</v>
+        <v>0.282634973526001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2988544702529907</v>
+        <v>0.1876316070556641</v>
       </c>
     </row>
     <row r="5">
@@ -603,256 +603,256 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9637488352645225</v>
+        <v>0.9532170483897389</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7549908789788436</v>
+        <v>0.7666163789923901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7398496829445513</v>
+        <v>-0.04083379450724545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9822916621178526</v>
+        <v>0.9606387694022539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7813910078926189</v>
+        <v>0.9490023348582737</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1521383821964264</v>
+        <v>0.1963380426168442</v>
       </c>
       <c r="H5" t="n">
-        <v>1.63837718963623</v>
+        <v>1.560637354850769</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5848466753959656</v>
+        <v>0.1030375733971596</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007720876019448042</v>
+        <v>0.2868613302707672</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2962837517261505</v>
+        <v>0.1949494481086731</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_20</t>
+          <t>model_5_8_17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9636681299593008</v>
+        <v>0.9512870338970112</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7547797596433692</v>
+        <v>0.7666041341924225</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7420356406110665</v>
+        <v>0.09887177021298976</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9828471437953448</v>
+        <v>0.9613567649300997</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7832932855580252</v>
+        <v>0.9514957069993653</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1524770855903625</v>
+        <v>0.2044379115104675</v>
       </c>
       <c r="H6" t="n">
-        <v>1.639788866043091</v>
+        <v>1.56071925163269</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5799323916435242</v>
+        <v>0.08920738846063614</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007478684652596712</v>
+        <v>0.2816286683082581</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2937055826187134</v>
+        <v>0.1854180097579956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_19</t>
+          <t>model_5_8_22</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9635822851263037</v>
+        <v>0.953645667830924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7545644365140335</v>
+        <v>0.7665934290307229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7442307378809975</v>
+        <v>-0.07632108736290966</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98338750670988</v>
+        <v>0.9603898673162602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7852007702390026</v>
+        <v>0.9483055600278717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1528373509645462</v>
+        <v>0.1945392042398453</v>
       </c>
       <c r="H7" t="n">
-        <v>1.641228675842285</v>
+        <v>1.560790777206421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5749975442886353</v>
+        <v>0.1065506488084793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007243085186928511</v>
+        <v>0.2886753380298615</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2911203503608704</v>
+        <v>0.1976130157709122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_18</t>
+          <t>model_5_8_16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9634912276068376</v>
+        <v>0.9507491385305631</v>
       </c>
       <c r="C8" t="n">
-        <v>0.754344785263835</v>
+        <v>0.766573783690143</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7464348952146898</v>
+        <v>0.1331521908495547</v>
       </c>
       <c r="E8" t="n">
-        <v>0.983912079066397</v>
+        <v>0.9614674170864221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7871133263912895</v>
+        <v>0.9520450489268774</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1532195061445236</v>
+        <v>0.2066953033208847</v>
       </c>
       <c r="H8" t="n">
-        <v>1.64269757270813</v>
+        <v>1.560922145843506</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5700423717498779</v>
+        <v>0.08581379055976868</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007014370523393154</v>
+        <v>0.2808222472667694</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2885282337665558</v>
+        <v>0.183318018913269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_17</t>
+          <t>model_5_8_23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9633948575199477</v>
+        <v>0.9540532540288018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7541207806755164</v>
+        <v>0.7665605732611851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7486485103104152</v>
+        <v>-0.1120037801220157</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9844201447123676</v>
+        <v>0.9601130746861045</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7890309071951153</v>
+        <v>0.9475796946735615</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1536239385604858</v>
+        <v>0.1928286701440811</v>
       </c>
       <c r="H9" t="n">
-        <v>1.644195556640625</v>
+        <v>1.561010599136353</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5650659203529358</v>
+        <v>0.1100830584764481</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006792852655053139</v>
+        <v>0.2906925678253174</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2859292924404144</v>
+        <v>0.2003877907991409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_16</t>
+          <t>model_5_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9632929530552126</v>
+        <v>0.9501884275820656</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7538922876270177</v>
+        <v>0.7665320945458146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7508705566095093</v>
+        <v>0.1671344900960108</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9849113044290816</v>
+        <v>0.9615509188401141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7909527330989157</v>
+        <v>0.9525646843306013</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1540516018867493</v>
+        <v>0.2090485244989395</v>
       </c>
       <c r="H10" t="n">
-        <v>1.645723342895508</v>
+        <v>1.561200976371765</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5600705146789551</v>
+        <v>0.08244970440864563</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006578706204891205</v>
+        <v>0.2802136838436127</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2833246290683746</v>
+        <v>0.1813316196203232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_8_15</t>
+          <t>model_5_8_24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9631853627299969</v>
+        <v>0.9544401752873097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7536592447354273</v>
+        <v>0.7665181085227688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7531011074375908</v>
+        <v>-0.1478721316447329</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9853846762838123</v>
+        <v>0.9598083848147939</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7928788261330777</v>
+        <v>0.9468248329997001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1545031517744064</v>
+        <v>0.1912048310041428</v>
       </c>
       <c r="H11" t="n">
-        <v>1.647281765937805</v>
+        <v>1.561294436454773</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5550559759140015</v>
+        <v>0.11363385617733</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006372314877808094</v>
+        <v>0.2929131090641022</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2807141542434692</v>
+        <v>0.2032734155654907</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9630719774854483</v>
+        <v>0.9496047016566037</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7534215489565942</v>
+        <v>0.7664787630321963</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7553400965116145</v>
+        <v>0.2007923197772534</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9858394175225621</v>
+        <v>0.9616074874471022</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7948089310029849</v>
+        <v>0.9530543717393074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1549790054559708</v>
+        <v>0.2114982753992081</v>
       </c>
       <c r="H12" t="n">
-        <v>1.648871183395386</v>
+        <v>1.561557531356812</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5500224828720093</v>
+        <v>0.07911774516105652</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006174046546220779</v>
+        <v>0.2798013985157013</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2780982851982117</v>
+        <v>0.1794596761465073</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9629526221196035</v>
+        <v>0.9489974946916111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7531790722840584</v>
+        <v>0.7664136078003204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7575870842921357</v>
+        <v>0.2340984989850764</v>
       </c>
       <c r="E13" t="n">
-        <v>0.986274935472896</v>
+        <v>0.9616372477766559</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7967424667247037</v>
+        <v>0.9535140240695436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1554799228906631</v>
+        <v>0.2140465974807739</v>
       </c>
       <c r="H13" t="n">
-        <v>1.650492668151855</v>
+        <v>1.561993360519409</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5449709892272949</v>
+        <v>0.07582058757543564</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005984159652143717</v>
+        <v>0.2795844972133636</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2754777073860168</v>
+        <v>0.1777025610208511</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9628271166444715</v>
+        <v>0.9483665810716611</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7529317552978684</v>
+        <v>0.7663364149070653</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7598419870968097</v>
+        <v>0.2670286329760041</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9866904142587464</v>
+        <v>0.9616404932737302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7986795776179054</v>
+        <v>0.953943504833578</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1560066342353821</v>
+        <v>0.2166944146156311</v>
       </c>
       <c r="H14" t="n">
-        <v>1.652146577835083</v>
+        <v>1.562509417533875</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5399017333984375</v>
+        <v>0.07256066799163818</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005803009960800409</v>
+        <v>0.2795608937740326</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2728523313999176</v>
+        <v>0.1760607659816742</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9626953202666461</v>
+        <v>0.9477115612380633</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7526794892691837</v>
+        <v>0.7662470149870083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7621046156046885</v>
+        <v>0.2995524195259137</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9870851387644708</v>
+        <v>0.9616176332423588</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8006193623695868</v>
+        <v>0.9543428495179261</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1565597504377365</v>
+        <v>0.2194433808326721</v>
       </c>
       <c r="H15" t="n">
-        <v>1.653833389282227</v>
+        <v>1.563107252120972</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5348151326179504</v>
+        <v>0.06934096664190292</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005630909465253353</v>
+        <v>0.2797274887561798</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2702233195304871</v>
+        <v>0.1745342016220093</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9625570424884092</v>
+        <v>0.947032132774496</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7524221676844003</v>
+        <v>0.7661451101402986</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7643742465020392</v>
+        <v>0.3316393513510753</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9874583125355743</v>
+        <v>0.9615687761563829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8025619730617194</v>
+        <v>0.9547117259868142</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1571400761604309</v>
+        <v>0.222294807434082</v>
       </c>
       <c r="H16" t="n">
-        <v>1.655554056167603</v>
+        <v>1.563788652420044</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5297127366065979</v>
+        <v>0.06616450846195221</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005468204617500305</v>
+        <v>0.2800835371017456</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2675904631614685</v>
+        <v>0.1731241047382355</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9624121176707005</v>
+        <v>0.946327951730237</v>
       </c>
       <c r="C17" t="n">
-        <v>0.752159684517436</v>
+        <v>0.7660305828322459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7666513640693624</v>
+        <v>0.3632567700263283</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9878090400290537</v>
+        <v>0.9614943789703946</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8045069758355687</v>
+        <v>0.9550502192333413</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1577482968568802</v>
+        <v>0.2252500951290131</v>
       </c>
       <c r="H17" t="n">
-        <v>1.657309293746948</v>
+        <v>1.564554572105408</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5245935320854187</v>
+        <v>0.0630345344543457</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005315286573022604</v>
+        <v>0.2806257605552673</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2649543881416321</v>
+        <v>0.1718301177024841</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9622603640095321</v>
+        <v>0.9455986266552365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7518919225914149</v>
+        <v>0.7659031783208594</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7689349873175866</v>
+        <v>0.3943688931646654</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9881364586396251</v>
+        <v>0.9613947063953209</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8064535566314972</v>
+        <v>0.9553580491860028</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1583851873874664</v>
+        <v>0.2283109128475189</v>
       </c>
       <c r="H18" t="n">
-        <v>1.659099817276001</v>
+        <v>1.565406560897827</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5194597244262695</v>
+        <v>0.05995458737015724</v>
       </c>
       <c r="J18" t="n">
-        <v>0.005172531120479107</v>
+        <v>0.281352162361145</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2623161673545837</v>
+        <v>0.1706533879041672</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9621016169254103</v>
+        <v>0.9448437760757005</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7516188163058748</v>
+        <v>0.7657626708234356</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7712252483985336</v>
+        <v>0.4249386148993838</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9884398627616566</v>
+        <v>0.961270037987206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8084017865427767</v>
+        <v>0.9556350358189096</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1590514034032822</v>
+        <v>0.2314788699150085</v>
       </c>
       <c r="H19" t="n">
-        <v>1.660926103591919</v>
+        <v>1.566346168518066</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5143109560012817</v>
+        <v>0.05692832916975021</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005040246527642012</v>
+        <v>0.2822607159614563</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2596756815910339</v>
+        <v>0.1695945262908936</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9619356888497338</v>
+        <v>0.9440631095832746</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7513402019474065</v>
+        <v>0.7656089136716124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.773521697830302</v>
+        <v>0.4549301215700483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9887181889344423</v>
+        <v>0.9611209170750432</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8103511882952056</v>
+        <v>0.9558812400354243</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1597477644681931</v>
+        <v>0.2347551584243774</v>
       </c>
       <c r="H20" t="n">
-        <v>1.662789225578308</v>
+        <v>1.567374348640442</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5091482400894165</v>
+        <v>0.05395931378006935</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004918895661830902</v>
+        <v>0.283347487449646</v>
       </c>
       <c r="K20" t="n">
-        <v>0.25703364610672</v>
+        <v>0.1686533689498901</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9617623707551637</v>
+        <v>0.9432561767354539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7510559972479222</v>
+        <v>0.765441731962141</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7758242320456336</v>
+        <v>0.4843065934746807</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9889707011303301</v>
+        <v>0.9609477637853326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8123015458361542</v>
+        <v>0.9560965475955268</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1604751348495483</v>
+        <v>0.2381416857242584</v>
       </c>
       <c r="H21" t="n">
-        <v>1.664689779281616</v>
+        <v>1.56849217414856</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5039718747138977</v>
+        <v>0.05105118453502655</v>
       </c>
       <c r="J21" t="n">
-        <v>0.004808799363672733</v>
+        <v>0.2846094071865082</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2543902993202209</v>
+        <v>0.167830303311348</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9615814849465758</v>
+        <v>0.9424226755207696</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7507660547947154</v>
+        <v>0.7652609421261749</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7781321704005064</v>
+        <v>0.5130246120710864</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9891964871810083</v>
+        <v>0.9607509021885692</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8142518958357481</v>
+        <v>0.9562807429842554</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1612342894077301</v>
+        <v>0.2416397035121918</v>
       </c>
       <c r="H22" t="n">
-        <v>1.666628479957581</v>
+        <v>1.569701194763184</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4987834095954895</v>
+        <v>0.04820823669433594</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004710356704890728</v>
+        <v>0.2860441207885742</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2517469525337219</v>
+        <v>0.1671261787414551</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9613928030527275</v>
+        <v>0.9415621334264337</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7504702899483084</v>
+        <v>0.7650663343379575</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7804453111459011</v>
+        <v>0.5410456902617606</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9893944293984783</v>
+        <v>0.9605309155991645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8162022196546685</v>
+        <v>0.9564338639581665</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1620261371135712</v>
+        <v>0.2452512234449387</v>
       </c>
       <c r="H23" t="n">
-        <v>1.668606281280518</v>
+        <v>1.571002602577209</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4935832023620605</v>
+        <v>0.04543428495526314</v>
       </c>
       <c r="J23" t="n">
-        <v>0.004624052904546261</v>
+        <v>0.2876473665237427</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2491036504507065</v>
+        <v>0.1665408611297607</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9611962066932811</v>
+        <v>0.9406742881746212</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7501685524907336</v>
+        <v>0.7648577721054965</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7827634894027423</v>
+        <v>0.5683293352328815</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9895637692931906</v>
+        <v>0.9602882378560774</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8181520995523331</v>
+        <v>0.9565558154646046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1628512144088745</v>
+        <v>0.248977318406105</v>
       </c>
       <c r="H24" t="n">
-        <v>1.670624017715454</v>
+        <v>1.572397232055664</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4883717000484467</v>
+        <v>0.042733334004879</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00455022044479847</v>
+        <v>0.2894159853458405</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2464609444141388</v>
+        <v>0.16607466340065</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9609913526542319</v>
+        <v>0.9397586930390588</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7498607151415646</v>
+        <v>0.7646350664797874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7850861262300559</v>
+        <v>0.5948296272708733</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9897035255672566</v>
+        <v>0.9600234455671172</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8201009626407929</v>
+        <v>0.9566465442039079</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1637109369039536</v>
+        <v>0.2528198659420013</v>
       </c>
       <c r="H25" t="n">
-        <v>1.672682523727417</v>
+        <v>1.573886394500732</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4831501543521881</v>
+        <v>0.04010993242263794</v>
       </c>
       <c r="J25" t="n">
-        <v>0.004489286802709103</v>
+        <v>0.2913458049297333</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2438196390867233</v>
+        <v>0.1657278388738632</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9607781333467469</v>
+        <v>0.9388149824444365</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7495466779082087</v>
+        <v>0.7643980920837505</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7874126741713143</v>
+        <v>0.6205065589695633</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9898124773514652</v>
+        <v>0.9597371685471441</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8220480610952194</v>
+        <v>0.9567061361581889</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1646057665348053</v>
+        <v>0.2567804455757141</v>
       </c>
       <c r="H26" t="n">
-        <v>1.674782514572144</v>
+        <v>1.575471043586731</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4779197871685028</v>
+        <v>0.03756804019212723</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004441783297806978</v>
+        <v>0.2934321165084839</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2411807179450989</v>
+        <v>0.1655000448226929</v>
       </c>
     </row>
   </sheetData>
